--- a/data/pca/factorExposure/factorExposure_2009-05-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-05-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01750594590387019</v>
+        <v>-0.01683282533809095</v>
       </c>
       <c r="C2">
-        <v>0.002085765161235198</v>
+        <v>-0.001313546305407618</v>
       </c>
       <c r="D2">
-        <v>0.007902800195332547</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.008757031671739154</v>
+      </c>
+      <c r="E2">
+        <v>0.0030425040104125</v>
+      </c>
+      <c r="F2">
+        <v>-0.01318056197802078</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.08824351849397313</v>
+        <v>-0.09122665986548573</v>
       </c>
       <c r="C4">
-        <v>0.02040845509110176</v>
+        <v>-0.01571017252759557</v>
       </c>
       <c r="D4">
-        <v>0.07970894448203486</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08332763425786784</v>
+      </c>
+      <c r="E4">
+        <v>0.02881798293540981</v>
+      </c>
+      <c r="F4">
+        <v>0.03397079572162223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2.306730511796788e-05</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>7.237413443576232e-05</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>-0.000235490882491738</v>
+      </c>
+      <c r="E5">
+        <v>0.0001596844266539904</v>
+      </c>
+      <c r="F5">
+        <v>-7.579758815354383e-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1551881438191182</v>
+        <v>-0.1631388756389119</v>
       </c>
       <c r="C6">
-        <v>0.03295162564861841</v>
+        <v>-0.03154407522252851</v>
       </c>
       <c r="D6">
-        <v>-0.03250629221265269</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.0229511011301766</v>
+      </c>
+      <c r="E6">
+        <v>0.01436591755114094</v>
+      </c>
+      <c r="F6">
+        <v>0.03988565929987059</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.05677628003591551</v>
+        <v>-0.06010391771787977</v>
       </c>
       <c r="C7">
-        <v>0.001618526260103752</v>
+        <v>0.001587902663235074</v>
       </c>
       <c r="D7">
-        <v>0.04597358649951796</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05145489378340143</v>
+      </c>
+      <c r="E7">
+        <v>0.01309788737599279</v>
+      </c>
+      <c r="F7">
+        <v>0.04816822317275902</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.05989189243682586</v>
+        <v>-0.05612320095414654</v>
       </c>
       <c r="C8">
-        <v>-0.009561735206732147</v>
+        <v>0.01173215313068978</v>
       </c>
       <c r="D8">
-        <v>0.02503339976333266</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02988207809152068</v>
+      </c>
+      <c r="E8">
+        <v>0.01890515368087316</v>
+      </c>
+      <c r="F8">
+        <v>-0.02840105365887115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.0682604276584198</v>
+        <v>-0.07078495517162928</v>
       </c>
       <c r="C9">
-        <v>0.01608647698778624</v>
+        <v>-0.01110918721634312</v>
       </c>
       <c r="D9">
-        <v>0.08179532331961034</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08591277233101013</v>
+      </c>
+      <c r="E9">
+        <v>0.02662661571046461</v>
+      </c>
+      <c r="F9">
+        <v>0.04983172663595384</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08669580734535019</v>
+        <v>-0.08735882074945885</v>
       </c>
       <c r="C10">
-        <v>0.01853007723845327</v>
+        <v>-0.02283571335741603</v>
       </c>
       <c r="D10">
-        <v>-0.1677035804851323</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1587270777420163</v>
+      </c>
+      <c r="E10">
+        <v>-0.03424964762854016</v>
+      </c>
+      <c r="F10">
+        <v>-0.06020775096684161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.0888762623589244</v>
+        <v>-0.08584638833818596</v>
       </c>
       <c r="C11">
-        <v>0.01752190329109604</v>
+        <v>-0.01214862824451648</v>
       </c>
       <c r="D11">
-        <v>0.1127562771003769</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1185662663498412</v>
+      </c>
+      <c r="E11">
+        <v>0.0532046283931262</v>
+      </c>
+      <c r="F11">
+        <v>0.02605486778921925</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09659134723108456</v>
+        <v>-0.09074014989534537</v>
       </c>
       <c r="C12">
-        <v>0.01633699445157831</v>
+        <v>-0.01012991206117815</v>
       </c>
       <c r="D12">
-        <v>0.1201226462516041</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1345461133379424</v>
+      </c>
+      <c r="E12">
+        <v>0.05450577574329644</v>
+      </c>
+      <c r="F12">
+        <v>0.03252634692977609</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04490011649282315</v>
+        <v>-0.04431240771285106</v>
       </c>
       <c r="C13">
-        <v>0.006926157447703259</v>
+        <v>-0.003380587548618888</v>
       </c>
       <c r="D13">
-        <v>0.04843887340496542</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05525490861031505</v>
+      </c>
+      <c r="E13">
+        <v>0.001859358811263942</v>
+      </c>
+      <c r="F13">
+        <v>0.004503888760313597</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01865502854047123</v>
+        <v>-0.02238224985505435</v>
       </c>
       <c r="C14">
-        <v>0.01490547712922228</v>
+        <v>-0.0137606331548027</v>
       </c>
       <c r="D14">
-        <v>0.03262090120731816</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.0335151335463794</v>
+      </c>
+      <c r="E14">
+        <v>0.02132041308638545</v>
+      </c>
+      <c r="F14">
+        <v>0.01314546573657201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03445771265316251</v>
+        <v>-0.03468094956458095</v>
       </c>
       <c r="C15">
-        <v>0.007963209525730855</v>
+        <v>-0.006198386910903388</v>
       </c>
       <c r="D15">
-        <v>0.04724509725934543</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04711699991143155</v>
+      </c>
+      <c r="E15">
+        <v>0.009683609648206321</v>
+      </c>
+      <c r="F15">
+        <v>0.03006757228142166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07264134132003576</v>
+        <v>-0.07061294618608793</v>
       </c>
       <c r="C16">
-        <v>0.00733843114366957</v>
+        <v>-0.001819658308012824</v>
       </c>
       <c r="D16">
-        <v>0.1165791138634989</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1296651607782996</v>
+      </c>
+      <c r="E16">
+        <v>0.06576647607666421</v>
+      </c>
+      <c r="F16">
+        <v>0.02970865958478767</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.001333668935431628</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0004546195572136833</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.002257264387353212</v>
+      </c>
+      <c r="E17">
+        <v>0.001774035922104851</v>
+      </c>
+      <c r="F17">
+        <v>-0.001971455249681048</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.02571548459725034</v>
+        <v>-0.04407205258227921</v>
       </c>
       <c r="C18">
-        <v>-0.00140545308391332</v>
+        <v>0.001160341446553284</v>
       </c>
       <c r="D18">
-        <v>0.02330799345883547</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01766011865359738</v>
+      </c>
+      <c r="E18">
+        <v>-0.002690427302718268</v>
+      </c>
+      <c r="F18">
+        <v>-0.009645967543220502</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06399085039555126</v>
+        <v>-0.06272713566089709</v>
       </c>
       <c r="C20">
-        <v>0.005979502009066372</v>
+        <v>-0.002137230042902892</v>
       </c>
       <c r="D20">
-        <v>0.07327917051679879</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07854795311929613</v>
+      </c>
+      <c r="E20">
+        <v>0.06391459620286406</v>
+      </c>
+      <c r="F20">
+        <v>0.03136180471486516</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04131016946274159</v>
+        <v>-0.04339374275335593</v>
       </c>
       <c r="C21">
-        <v>0.01049502744476633</v>
+        <v>-0.007762608286998296</v>
       </c>
       <c r="D21">
-        <v>0.036060783697935</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03695265241602848</v>
+      </c>
+      <c r="E21">
+        <v>0.005088660119177173</v>
+      </c>
+      <c r="F21">
+        <v>-0.02386989953816392</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.03962845746478631</v>
+        <v>-0.04172605081862825</v>
       </c>
       <c r="C22">
-        <v>0.001176856241910601</v>
+        <v>-0.0008681642623343656</v>
       </c>
       <c r="D22">
-        <v>0.00192092705104548</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.008123288272499156</v>
+      </c>
+      <c r="E22">
+        <v>0.03582324349740058</v>
+      </c>
+      <c r="F22">
+        <v>-0.05131289510063287</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.03959101134174384</v>
+        <v>-0.04169467241613509</v>
       </c>
       <c r="C23">
-        <v>0.001164260794105236</v>
+        <v>-0.0008561229204995012</v>
       </c>
       <c r="D23">
-        <v>0.001939517181559229</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.008137305725574764</v>
+      </c>
+      <c r="E23">
+        <v>0.03585294774067217</v>
+      </c>
+      <c r="F23">
+        <v>-0.0513675919689284</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.07990912904167874</v>
+        <v>-0.07644712921410431</v>
       </c>
       <c r="C24">
-        <v>0.008090375904292032</v>
+        <v>-0.002626060819632563</v>
       </c>
       <c r="D24">
-        <v>0.1172120941064346</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.122531468741251</v>
+      </c>
+      <c r="E24">
+        <v>0.05273341821205976</v>
+      </c>
+      <c r="F24">
+        <v>0.03216944049050344</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08499030200966197</v>
+        <v>-0.08169012996201427</v>
       </c>
       <c r="C25">
-        <v>0.01055811193503276</v>
+        <v>-0.005639054988978465</v>
       </c>
       <c r="D25">
-        <v>0.105400689566353</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1110049865459959</v>
+      </c>
+      <c r="E25">
+        <v>0.03597206166443351</v>
+      </c>
+      <c r="F25">
+        <v>0.02885472435506694</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05698230607864454</v>
+        <v>-0.06061009183602221</v>
       </c>
       <c r="C26">
-        <v>0.01838691755474998</v>
+        <v>-0.01514913563857129</v>
       </c>
       <c r="D26">
-        <v>0.03765373684632217</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.0469124440793916</v>
+      </c>
+      <c r="E26">
+        <v>0.03480211791069424</v>
+      </c>
+      <c r="F26">
+        <v>-0.006151225784334991</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1387978878533625</v>
+        <v>-0.1469465048191561</v>
       </c>
       <c r="C28">
-        <v>0.0192710461822098</v>
+        <v>-0.02649345013125401</v>
       </c>
       <c r="D28">
-        <v>-0.2592012558332341</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2552355281528939</v>
+      </c>
+      <c r="E28">
+        <v>-0.06756497022272687</v>
+      </c>
+      <c r="F28">
+        <v>0.003449045785667754</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02498636853455275</v>
+        <v>-0.02770290730753762</v>
       </c>
       <c r="C29">
-        <v>0.009612259119461395</v>
+        <v>-0.008958953546258383</v>
       </c>
       <c r="D29">
-        <v>0.03037120259389597</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03036137446358859</v>
+      </c>
+      <c r="E29">
+        <v>0.01749558460764643</v>
+      </c>
+      <c r="F29">
+        <v>-0.01330483983995909</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.05687958015926106</v>
+        <v>-0.05458520208656738</v>
       </c>
       <c r="C30">
-        <v>0.007662135626862177</v>
+        <v>-0.002818243479199047</v>
       </c>
       <c r="D30">
-        <v>0.0777413007092098</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08618269933981715</v>
+      </c>
+      <c r="E30">
+        <v>0.01388323798253729</v>
+      </c>
+      <c r="F30">
+        <v>0.08105490017308493</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05052548393855754</v>
+        <v>-0.05107663453449159</v>
       </c>
       <c r="C31">
-        <v>0.01814906505605534</v>
+        <v>-0.01658565402111827</v>
       </c>
       <c r="D31">
-        <v>0.02203068844652215</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02532503646231028</v>
+      </c>
+      <c r="E31">
+        <v>0.03053835167871467</v>
+      </c>
+      <c r="F31">
+        <v>-0.001239054620248992</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04635606429051677</v>
+        <v>-0.05087443432155553</v>
       </c>
       <c r="C32">
-        <v>0.002419487611813303</v>
+        <v>0.001076831333892629</v>
       </c>
       <c r="D32">
-        <v>0.02854495666887985</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03322255761402094</v>
+      </c>
+      <c r="E32">
+        <v>0.03565564160378001</v>
+      </c>
+      <c r="F32">
+        <v>0.003575006519007018</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.08901935919462931</v>
+        <v>-0.08934099228099268</v>
       </c>
       <c r="C33">
-        <v>0.01403517697720278</v>
+        <v>-0.008186879982553765</v>
       </c>
       <c r="D33">
-        <v>0.09212581868107236</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1046890997761054</v>
+      </c>
+      <c r="E33">
+        <v>0.04991644347475074</v>
+      </c>
+      <c r="F33">
+        <v>0.04427141450787669</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.0678785371839708</v>
+        <v>-0.06621137535742158</v>
       </c>
       <c r="C34">
-        <v>0.01594000645264106</v>
+        <v>-0.01102750537511492</v>
       </c>
       <c r="D34">
-        <v>0.09894629223096429</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1111362775183785</v>
+      </c>
+      <c r="E34">
+        <v>0.04045003105645861</v>
+      </c>
+      <c r="F34">
+        <v>0.03703363243122364</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02629854698165073</v>
+        <v>-0.027802980453813</v>
       </c>
       <c r="C35">
-        <v>0.004433326506889467</v>
+        <v>-0.00391450654256964</v>
       </c>
       <c r="D35">
-        <v>0.008660738098186902</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.0116563292353071</v>
+      </c>
+      <c r="E35">
+        <v>0.01638574757360852</v>
+      </c>
+      <c r="F35">
+        <v>-5.424047736529776e-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02391578576423944</v>
+        <v>-0.02843179439746672</v>
       </c>
       <c r="C36">
-        <v>0.008577736791466908</v>
+        <v>-0.007381029508578526</v>
       </c>
       <c r="D36">
-        <v>0.0384791252557713</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.0400736972376757</v>
+      </c>
+      <c r="E36">
+        <v>0.02018807096695254</v>
+      </c>
+      <c r="F36">
+        <v>0.01591742296020739</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.002403684120270942</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0007558186605919113</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.003252395113852082</v>
+      </c>
+      <c r="E37">
+        <v>0.0008965508658684799</v>
+      </c>
+      <c r="F37">
+        <v>-0.001232902661620638</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1083361706871017</v>
+        <v>-0.0979259365435515</v>
       </c>
       <c r="C39">
-        <v>0.02343019647013792</v>
+        <v>-0.01680590572364053</v>
       </c>
       <c r="D39">
-        <v>0.1515667125009482</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1530915575254926</v>
+      </c>
+      <c r="E39">
+        <v>0.06498681901642644</v>
+      </c>
+      <c r="F39">
+        <v>0.02383404658491941</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03879885697762778</v>
+        <v>-0.04452997223236489</v>
       </c>
       <c r="C40">
-        <v>0.009921638568574713</v>
+        <v>-0.008786297015216583</v>
       </c>
       <c r="D40">
-        <v>0.02447515656500376</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03190968603555346</v>
+      </c>
+      <c r="E40">
+        <v>0.004460299242511821</v>
+      </c>
+      <c r="F40">
+        <v>-0.01737528408340561</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02506106360346595</v>
+        <v>-0.02752419626715209</v>
       </c>
       <c r="C41">
-        <v>0.007943507653457488</v>
+        <v>-0.007193957428886193</v>
       </c>
       <c r="D41">
-        <v>0.008087776346124597</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01017528418953054</v>
+      </c>
+      <c r="E41">
+        <v>0.01403811648907873</v>
+      </c>
+      <c r="F41">
+        <v>-0.007132871579467633</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1531,176 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04092213028471841</v>
+        <v>-0.03967543572859313</v>
       </c>
       <c r="C43">
-        <v>0.008608540795121451</v>
+        <v>-0.007917871063146285</v>
       </c>
       <c r="D43">
-        <v>0.01829471029348699</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02038494434328412</v>
+      </c>
+      <c r="E43">
+        <v>0.0285233205793726</v>
+      </c>
+      <c r="F43">
+        <v>-0.01563084672048394</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.06011467232033076</v>
+        <v>-0.07170911825195514</v>
       </c>
       <c r="C44">
-        <v>0.02219377602859647</v>
+        <v>-0.0185657764850303</v>
       </c>
       <c r="D44">
-        <v>0.09043688162984127</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.0890595232129978</v>
+      </c>
+      <c r="E44">
+        <v>0.05425938566378193</v>
+      </c>
+      <c r="F44">
+        <v>0.1694873019164696</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>2.640837375094337e-06</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>1.420597434314584e-05</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>-1.340493845715799e-05</v>
+      </c>
+      <c r="E45">
+        <v>-3.338983246249309e-05</v>
+      </c>
+      <c r="F45">
+        <v>-9.387624322935591e-05</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.0208609584006684</v>
+        <v>-0.02414516030072996</v>
       </c>
       <c r="C46">
-        <v>0.00460378957131516</v>
+        <v>-0.003541731564849232</v>
       </c>
       <c r="D46">
-        <v>0.0110482711773279</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01441418280651732</v>
+      </c>
+      <c r="E46">
+        <v>0.03151502136763345</v>
+      </c>
+      <c r="F46">
+        <v>-0.004728319192295953</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05375040984790892</v>
+        <v>-0.05326948868741344</v>
       </c>
       <c r="C47">
-        <v>0.00642879898858701</v>
+        <v>-0.005148059976573792</v>
       </c>
       <c r="D47">
-        <v>0.006631253572033172</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01114406401563338</v>
+      </c>
+      <c r="E47">
+        <v>0.02621579084641907</v>
+      </c>
+      <c r="F47">
+        <v>-0.03078424383835239</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04799199323516317</v>
+        <v>-0.05147531109003118</v>
       </c>
       <c r="C48">
-        <v>0.005662996427440036</v>
+        <v>-0.002919352043694787</v>
       </c>
       <c r="D48">
-        <v>0.04896026166615438</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05187327906042989</v>
+      </c>
+      <c r="E48">
+        <v>-0.001966463609911874</v>
+      </c>
+      <c r="F48">
+        <v>0.01372928281362054</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.1972277167557069</v>
+        <v>-0.1997695726411976</v>
       </c>
       <c r="C49">
-        <v>0.0254217562272887</v>
+        <v>-0.02308966192381503</v>
       </c>
       <c r="D49">
-        <v>-0.01144820315053332</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.006318738724460602</v>
+      </c>
+      <c r="E49">
+        <v>0.02744852663174836</v>
+      </c>
+      <c r="F49">
+        <v>0.04915413797562197</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04891685888725782</v>
+        <v>-0.05147335141400509</v>
       </c>
       <c r="C50">
-        <v>0.01383082156518598</v>
+        <v>-0.01233334140928627</v>
       </c>
       <c r="D50">
-        <v>0.0218330497951408</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02486021084548951</v>
+      </c>
+      <c r="E50">
+        <v>0.03323249356119512</v>
+      </c>
+      <c r="F50">
+        <v>0.009625432661077777</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1542572297848067</v>
+        <v>-0.1472124087171802</v>
       </c>
       <c r="C52">
-        <v>0.02336039707348045</v>
+        <v>-0.02062559862145518</v>
       </c>
       <c r="D52">
-        <v>0.04178012785534092</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04466673100365249</v>
+      </c>
+      <c r="E52">
+        <v>0.02183932264831553</v>
+      </c>
+      <c r="F52">
+        <v>0.04144719553376042</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1753305651672704</v>
+        <v>-0.1686219202361268</v>
       </c>
       <c r="C53">
-        <v>0.02527601031369851</v>
+        <v>-0.02417069908913509</v>
       </c>
       <c r="D53">
-        <v>0.004955835689771447</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.008026816110638381</v>
+      </c>
+      <c r="E53">
+        <v>0.02840354299984823</v>
+      </c>
+      <c r="F53">
+        <v>0.07502310551300499</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01518060086986741</v>
+        <v>-0.01797035596133724</v>
       </c>
       <c r="C54">
-        <v>0.01177064568145878</v>
+        <v>-0.01085970045537269</v>
       </c>
       <c r="D54">
-        <v>0.02989888813448904</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02857124388404697</v>
+      </c>
+      <c r="E54">
+        <v>0.02063891648138836</v>
+      </c>
+      <c r="F54">
+        <v>-0.002655330291021842</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1186233558822716</v>
+        <v>-0.116264961442394</v>
       </c>
       <c r="C55">
-        <v>0.02174659150166791</v>
+        <v>-0.02087233215398758</v>
       </c>
       <c r="D55">
-        <v>0.003282181170309537</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.01055984996142294</v>
+      </c>
+      <c r="E55">
+        <v>0.02674647428602855</v>
+      </c>
+      <c r="F55">
+        <v>0.04701318238891049</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.180709439805971</v>
+        <v>-0.1751089978562835</v>
       </c>
       <c r="C56">
-        <v>0.0230511196568256</v>
+        <v>-0.02226107144410683</v>
       </c>
       <c r="D56">
-        <v>-0.006889429238005709</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.0009016503584109096</v>
+      </c>
+      <c r="E56">
+        <v>0.03123441189485838</v>
+      </c>
+      <c r="F56">
+        <v>0.05525407195523256</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.0442019979790308</v>
+        <v>-0.04364565825385791</v>
       </c>
       <c r="C58">
-        <v>0.004132715363367198</v>
+        <v>0.000461157218071398</v>
       </c>
       <c r="D58">
-        <v>0.06781291894093787</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07729394086154734</v>
+      </c>
+      <c r="E58">
+        <v>0.03666160937885869</v>
+      </c>
+      <c r="F58">
+        <v>-0.03444239344953913</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1632072867532627</v>
+        <v>-0.1695284216988678</v>
       </c>
       <c r="C59">
-        <v>0.0207877394903622</v>
+        <v>-0.02655157035358674</v>
       </c>
       <c r="D59">
-        <v>-0.2198063051785391</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2150958925066257</v>
+      </c>
+      <c r="E59">
+        <v>-0.05264179186330099</v>
+      </c>
+      <c r="F59">
+        <v>-0.04183159320376821</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2358105038365317</v>
+        <v>-0.2278472861070935</v>
       </c>
       <c r="C60">
-        <v>0.006976112916741395</v>
+        <v>-0.002887543085450785</v>
       </c>
       <c r="D60">
-        <v>0.03691572934054224</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03854509074192762</v>
+      </c>
+      <c r="E60">
+        <v>-0.002119809548547178</v>
+      </c>
+      <c r="F60">
+        <v>0.006610598236647001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.07994153093891568</v>
+        <v>-0.07424328625748079</v>
       </c>
       <c r="C61">
-        <v>0.01732738338067862</v>
+        <v>-0.01161422236835404</v>
       </c>
       <c r="D61">
-        <v>0.1134791762985546</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1188616672402023</v>
+      </c>
+      <c r="E61">
+        <v>0.04379307043026894</v>
+      </c>
+      <c r="F61">
+        <v>0.01094524291112047</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.172719487606174</v>
+        <v>-0.1681910105090559</v>
       </c>
       <c r="C62">
-        <v>0.02652967333126567</v>
+        <v>-0.0246697597705213</v>
       </c>
       <c r="D62">
-        <v>0.000742497455540804</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.008752841020230872</v>
+      </c>
+      <c r="E62">
+        <v>0.03437731009265942</v>
+      </c>
+      <c r="F62">
+        <v>0.0421750741725002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04279791309395039</v>
+        <v>-0.04670358355875015</v>
       </c>
       <c r="C63">
-        <v>0.00589455040233224</v>
+        <v>-0.002844488667913365</v>
       </c>
       <c r="D63">
-        <v>0.05223397197982658</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06220445850991577</v>
+      </c>
+      <c r="E63">
+        <v>0.02782938804288487</v>
+      </c>
+      <c r="F63">
+        <v>0.001508916752491411</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1150499166951588</v>
+        <v>-0.1120239764664493</v>
       </c>
       <c r="C64">
-        <v>0.01860782072087519</v>
+        <v>-0.01491942409534012</v>
       </c>
       <c r="D64">
-        <v>0.03500798960870775</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04241888983871501</v>
+      </c>
+      <c r="E64">
+        <v>0.02799049399090019</v>
+      </c>
+      <c r="F64">
+        <v>0.02701835862806308</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1470557952767275</v>
+        <v>-0.1541803054544347</v>
       </c>
       <c r="C65">
-        <v>0.03893346591837693</v>
+        <v>-0.03830710835181192</v>
       </c>
       <c r="D65">
-        <v>-0.05198671227077352</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04156688359336893</v>
+      </c>
+      <c r="E65">
+        <v>0.008803329899640911</v>
+      </c>
+      <c r="F65">
+        <v>0.03747127964381997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1302792607295331</v>
+        <v>-0.1171177480776563</v>
       </c>
       <c r="C66">
-        <v>0.02197672965452378</v>
+        <v>-0.01494632666435012</v>
       </c>
       <c r="D66">
-        <v>0.1346365389690201</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1423371952280977</v>
+      </c>
+      <c r="E66">
+        <v>0.06767344950320062</v>
+      </c>
+      <c r="F66">
+        <v>0.0286313554962329</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.0633913926177939</v>
+        <v>-0.05621062770321905</v>
       </c>
       <c r="C67">
-        <v>0.007216815607259216</v>
+        <v>-0.00476113403050607</v>
       </c>
       <c r="D67">
-        <v>0.05361176110899072</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05743155182691646</v>
+      </c>
+      <c r="E67">
+        <v>0.0251536530055658</v>
+      </c>
+      <c r="F67">
+        <v>-0.03336340625243253</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1121177745465316</v>
+        <v>-0.1208091539827614</v>
       </c>
       <c r="C68">
-        <v>0.02902265063902775</v>
+        <v>-0.03686498873179256</v>
       </c>
       <c r="D68">
-        <v>-0.2606543525559977</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2575060251799928</v>
+      </c>
+      <c r="E68">
+        <v>-0.08871744375841961</v>
+      </c>
+      <c r="F68">
+        <v>-0.0005608219278845056</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03929718166739617</v>
+        <v>-0.03875880920471527</v>
       </c>
       <c r="C69">
-        <v>0.002882749362507874</v>
+        <v>-0.001826906649511129</v>
       </c>
       <c r="D69">
-        <v>0.00931767985671032</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01035169483920121</v>
+      </c>
+      <c r="E69">
+        <v>0.0288785993645136</v>
+      </c>
+      <c r="F69">
+        <v>-0.0002267410708351112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06891841442159544</v>
+        <v>-0.0685642219381188</v>
       </c>
       <c r="C70">
-        <v>-0.02308272196936469</v>
+        <v>0.02542513963699899</v>
       </c>
       <c r="D70">
-        <v>0.02651287104540737</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.03100148159631386</v>
+      </c>
+      <c r="E70">
+        <v>-0.02043604618397382</v>
+      </c>
+      <c r="F70">
+        <v>-0.1840760106119532</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1303883991002548</v>
+        <v>-0.1408867354845395</v>
       </c>
       <c r="C71">
-        <v>0.03395695833465467</v>
+        <v>-0.04179865175167299</v>
       </c>
       <c r="D71">
-        <v>-0.2757435193383895</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2675214759757554</v>
+      </c>
+      <c r="E71">
+        <v>-0.09941566337700307</v>
+      </c>
+      <c r="F71">
+        <v>0.003009327956746466</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1370997660836983</v>
+        <v>-0.1436241965690994</v>
       </c>
       <c r="C72">
-        <v>0.03059207494061577</v>
+        <v>-0.03051133662551191</v>
       </c>
       <c r="D72">
-        <v>0.001004850485710919</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.001209307850830917</v>
+      </c>
+      <c r="E72">
+        <v>0.04053502558004297</v>
+      </c>
+      <c r="F72">
+        <v>0.02974782622104375</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2006221336862942</v>
+        <v>-0.2027329760415979</v>
       </c>
       <c r="C73">
-        <v>0.02022113192371942</v>
+        <v>-0.01622437801150367</v>
       </c>
       <c r="D73">
-        <v>0.00924247328856251</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01650004491430549</v>
+      </c>
+      <c r="E73">
+        <v>0.06307571722495187</v>
+      </c>
+      <c r="F73">
+        <v>0.04399390624026302</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.08881994783568413</v>
+        <v>-0.08963801170422504</v>
       </c>
       <c r="C74">
-        <v>0.01525609376496849</v>
+        <v>-0.01416015583973909</v>
       </c>
       <c r="D74">
-        <v>0.0128682079718984</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01708213348305054</v>
+      </c>
+      <c r="E74">
+        <v>0.03994856152408838</v>
+      </c>
+      <c r="F74">
+        <v>0.05294870049952573</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1323926314981716</v>
+        <v>-0.12461257056376</v>
       </c>
       <c r="C75">
-        <v>0.03356806440372997</v>
+        <v>-0.03113891568828606</v>
       </c>
       <c r="D75">
-        <v>0.02435761813090749</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03126698684270952</v>
+      </c>
+      <c r="E75">
+        <v>0.05615810011675936</v>
+      </c>
+      <c r="F75">
+        <v>0.0228306784199496</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08046168131309112</v>
+        <v>-0.09167286617159283</v>
       </c>
       <c r="C77">
-        <v>0.01506524829816885</v>
+        <v>-0.009890151186780537</v>
       </c>
       <c r="D77">
-        <v>0.1147166220602656</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1184736189846508</v>
+      </c>
+      <c r="E77">
+        <v>0.05134796219578792</v>
+      </c>
+      <c r="F77">
+        <v>0.0353466271629019</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.09875772511514334</v>
+        <v>-0.09922525132730058</v>
       </c>
       <c r="C78">
-        <v>0.04551361112162694</v>
+        <v>-0.04119705599287952</v>
       </c>
       <c r="D78">
-        <v>0.1111784450944398</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1098227159456927</v>
+      </c>
+      <c r="E78">
+        <v>0.07534681276705149</v>
+      </c>
+      <c r="F78">
+        <v>0.05474439647553309</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1692300848523257</v>
+        <v>-0.164481103107415</v>
       </c>
       <c r="C79">
-        <v>0.02975751939977783</v>
+        <v>-0.02774283188731992</v>
       </c>
       <c r="D79">
-        <v>0.008538394820827995</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01626128608511804</v>
+      </c>
+      <c r="E79">
+        <v>0.04840890951042303</v>
+      </c>
+      <c r="F79">
+        <v>0.01396932960768611</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08007890173613466</v>
+        <v>-0.07880660857800853</v>
       </c>
       <c r="C80">
-        <v>0.003643406118063497</v>
+        <v>-0.0009111658423889518</v>
       </c>
       <c r="D80">
-        <v>0.05210578006091551</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05146880228117962</v>
+      </c>
+      <c r="E80">
+        <v>0.03787773968740175</v>
+      </c>
+      <c r="F80">
+        <v>-0.02836891401975661</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1192574369734604</v>
+        <v>-0.1138591888088148</v>
       </c>
       <c r="C81">
-        <v>0.03526657369107427</v>
+        <v>-0.0340621888328714</v>
       </c>
       <c r="D81">
-        <v>0.00589295853711795</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01204234722326997</v>
+      </c>
+      <c r="E81">
+        <v>0.05084790326888781</v>
+      </c>
+      <c r="F81">
+        <v>0.01940767510076871</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1651439106120985</v>
+        <v>-0.1634128851995874</v>
       </c>
       <c r="C82">
-        <v>0.02948750864895331</v>
+        <v>-0.02908171959011336</v>
       </c>
       <c r="D82">
-        <v>0.004566303623979646</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.003817672963781902</v>
+      </c>
+      <c r="E82">
+        <v>0.02422787226528211</v>
+      </c>
+      <c r="F82">
+        <v>0.08344796583268771</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.05822190437929218</v>
+        <v>-0.05310738724748632</v>
       </c>
       <c r="C83">
-        <v>0.005543887093641951</v>
+        <v>-0.003455224571601296</v>
       </c>
       <c r="D83">
-        <v>0.037204940636599</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03913519570872163</v>
+      </c>
+      <c r="E83">
+        <v>-0.001632699918888999</v>
+      </c>
+      <c r="F83">
+        <v>-0.03549143102316901</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06002734279600523</v>
+        <v>-0.05554371228411732</v>
       </c>
       <c r="C84">
-        <v>0.01417713939928244</v>
+        <v>-0.01115909598834664</v>
       </c>
       <c r="D84">
-        <v>0.07626816667355042</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07750711825327673</v>
+      </c>
+      <c r="E84">
+        <v>0.01411176276000242</v>
+      </c>
+      <c r="F84">
+        <v>0.01674099625848618</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1403780723475301</v>
+        <v>-0.1351978749612777</v>
       </c>
       <c r="C85">
-        <v>0.0332032108802289</v>
+        <v>-0.03196381159453648</v>
       </c>
       <c r="D85">
-        <v>0.006675560402926603</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01110184354479339</v>
+      </c>
+      <c r="E85">
+        <v>0.03679590042025056</v>
+      </c>
+      <c r="F85">
+        <v>0.04937045075007727</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.09915947201347174</v>
+        <v>-0.09107834682899456</v>
       </c>
       <c r="C86">
-        <v>-0.001644731740249545</v>
+        <v>0.005476696504934564</v>
       </c>
       <c r="D86">
-        <v>0.01495422678047172</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05217151475541625</v>
+      </c>
+      <c r="E86">
+        <v>0.2391122434496485</v>
+      </c>
+      <c r="F86">
+        <v>-0.8925052324959682</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.09375571583024965</v>
+        <v>-0.09095562682176886</v>
       </c>
       <c r="C87">
-        <v>0.02923065651635415</v>
+        <v>-0.02134350731446777</v>
       </c>
       <c r="D87">
-        <v>0.07056883576768468</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.08906354086361504</v>
+      </c>
+      <c r="E87">
+        <v>-0.05775101049528163</v>
+      </c>
+      <c r="F87">
+        <v>0.0472142032654269</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06264562729061358</v>
+        <v>-0.06135664569187867</v>
       </c>
       <c r="C88">
-        <v>0.006616442403517904</v>
+        <v>-0.003629210188356023</v>
       </c>
       <c r="D88">
-        <v>0.04971709721527524</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.05035484067662823</v>
+      </c>
+      <c r="E88">
+        <v>0.02786754946024808</v>
+      </c>
+      <c r="F88">
+        <v>0.01464221185596475</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1225722745885705</v>
+        <v>-0.1307343779736832</v>
       </c>
       <c r="C89">
-        <v>0.009720450241736065</v>
+        <v>-0.01706387483786839</v>
       </c>
       <c r="D89">
-        <v>-0.2365988569072254</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2393044212852196</v>
+      </c>
+      <c r="E89">
+        <v>-0.09065735511032963</v>
+      </c>
+      <c r="F89">
+        <v>-0.009653238058830659</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1413764049148283</v>
+        <v>-0.1555202707380678</v>
       </c>
       <c r="C90">
-        <v>0.02988692932733645</v>
+        <v>-0.03847894080309214</v>
       </c>
       <c r="D90">
-        <v>-0.2616328842483427</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2650357247533068</v>
+      </c>
+      <c r="E90">
+        <v>-0.1172597110158886</v>
+      </c>
+      <c r="F90">
+        <v>-0.01099275611440116</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1244978474392971</v>
+        <v>-0.1208763426515463</v>
       </c>
       <c r="C91">
-        <v>0.02397788309184731</v>
+        <v>-0.02336552808903575</v>
       </c>
       <c r="D91">
-        <v>-0.02015261897875791</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01467507124368075</v>
+      </c>
+      <c r="E91">
+        <v>0.05602637266850184</v>
+      </c>
+      <c r="F91">
+        <v>-0.0008567961436830325</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1425115780034794</v>
+        <v>-0.1488560000317844</v>
       </c>
       <c r="C92">
-        <v>0.02084537635334873</v>
+        <v>-0.02949339927692592</v>
       </c>
       <c r="D92">
-        <v>-0.2908217146206246</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.290269365399563</v>
+      </c>
+      <c r="E92">
+        <v>-0.1043652741419931</v>
+      </c>
+      <c r="F92">
+        <v>-0.0226979032178696</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1465053204716036</v>
+        <v>-0.1585613762010515</v>
       </c>
       <c r="C93">
-        <v>0.0265700497044352</v>
+        <v>-0.03376088091772702</v>
       </c>
       <c r="D93">
-        <v>-0.2587790379266595</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2583574078270806</v>
+      </c>
+      <c r="E93">
+        <v>-0.07426559243105856</v>
+      </c>
+      <c r="F93">
+        <v>0.003748885218789321</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1315855060061998</v>
+        <v>-0.1238468526769971</v>
       </c>
       <c r="C94">
-        <v>0.02977017898695837</v>
+        <v>-0.02674274802835034</v>
       </c>
       <c r="D94">
-        <v>0.03889896052605335</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04360958139276028</v>
+      </c>
+      <c r="E94">
+        <v>0.05736188328240954</v>
+      </c>
+      <c r="F94">
+        <v>0.03394879293221437</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1260273823052108</v>
+        <v>-0.1284616831469573</v>
       </c>
       <c r="C95">
-        <v>0.01187005716021689</v>
+        <v>-0.006478354133714766</v>
       </c>
       <c r="D95">
-        <v>0.08908084448588882</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1001682544145029</v>
+      </c>
+      <c r="E95">
+        <v>0.06205617858235837</v>
+      </c>
+      <c r="F95">
+        <v>0.006187213213390851</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1431058020544774</v>
+        <v>-0.1327339199855266</v>
       </c>
       <c r="C96">
-        <v>-0.9840146927801704</v>
+        <v>0.9843816828372636</v>
       </c>
       <c r="D96">
-        <v>-0.02433530135430908</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05335923734101325</v>
+      </c>
+      <c r="E96">
+        <v>0.0472762023049945</v>
+      </c>
+      <c r="F96">
+        <v>0.04333032168185633</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1875638578959572</v>
+        <v>-0.1914920606177786</v>
       </c>
       <c r="C97">
-        <v>-0.0008262167263506815</v>
+        <v>0.001546653867609199</v>
       </c>
       <c r="D97">
-        <v>-0.02852591725576639</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.03095402174081527</v>
+      </c>
+      <c r="E97">
+        <v>0.0374782145934052</v>
+      </c>
+      <c r="F97">
+        <v>-0.1166164392102244</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1983954501533167</v>
+        <v>-0.2046193320494764</v>
       </c>
       <c r="C98">
-        <v>0.01527389893115121</v>
+        <v>-0.01091967999419569</v>
       </c>
       <c r="D98">
-        <v>0.01374460139072611</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01540939346775826</v>
+      </c>
+      <c r="E98">
+        <v>-0.08057685822195432</v>
+      </c>
+      <c r="F98">
+        <v>-0.09684226853159016</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05651196729684077</v>
+        <v>-0.05606325350186323</v>
       </c>
       <c r="C99">
-        <v>-0.001032252206849214</v>
+        <v>0.003050037520049351</v>
       </c>
       <c r="D99">
-        <v>0.03634006209644317</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.04173078947965408</v>
+      </c>
+      <c r="E99">
+        <v>0.02751179196894834</v>
+      </c>
+      <c r="F99">
+        <v>0.003260263601074016</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1495265444775769</v>
+        <v>-0.135790385246169</v>
       </c>
       <c r="C100">
-        <v>-0.03418320978113698</v>
+        <v>0.04640668262195743</v>
       </c>
       <c r="D100">
-        <v>0.4104060289200761</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3698992779677919</v>
+      </c>
+      <c r="E100">
+        <v>-0.8748066390785788</v>
+      </c>
+      <c r="F100">
+        <v>-0.1649059093678813</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02498642858144582</v>
+        <v>-0.02775134818516004</v>
       </c>
       <c r="C101">
-        <v>0.009615631025716656</v>
+        <v>-0.00898491183069472</v>
       </c>
       <c r="D101">
-        <v>0.02991996757786589</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02992706790130444</v>
+      </c>
+      <c r="E101">
+        <v>0.01708298150528463</v>
+      </c>
+      <c r="F101">
+        <v>-0.01463357791542094</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
